--- a/Модели Excel/New Logic_Var_M.xlsx
+++ b/Модели Excel/New Logic_Var_M.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Docs\KTH\!Work2\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\magistr\Модели Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generation Linear regression" sheetId="3" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[&gt;0.05]0.0;[=0]\-;\^"/>
     <numFmt numFmtId="165" formatCode="0.0000000_ ;\-0.0000000\ "/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -518,6 +518,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -656,7 +657,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C574-401F-A159-539403B5C3B0}"/>
             </c:ext>
@@ -765,7 +766,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C574-401F-A159-539403B5C3B0}"/>
             </c:ext>
@@ -780,11 +781,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="809764607"/>
-        <c:axId val="809764191"/>
+        <c:axId val="-831648928"/>
+        <c:axId val="-831641312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="809764607"/>
+        <c:axId val="-831648928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,7 +827,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809764191"/>
+        <c:crossAx val="-831641312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -834,7 +835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="809764191"/>
+        <c:axId val="-831641312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +886,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809764607"/>
+        <c:crossAx val="-831648928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -899,6 +900,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -966,7 +968,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -980,6 +982,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1115,7 +1118,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6534-435B-9FFA-36F843D92D27}"/>
             </c:ext>
@@ -1311,7 +1314,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6534-435B-9FFA-36F843D92D27}"/>
             </c:ext>
@@ -1326,11 +1329,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948336288"/>
-        <c:axId val="948339616"/>
+        <c:axId val="-689945040"/>
+        <c:axId val="-689946672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948336288"/>
+        <c:axId val="-689945040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1375,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948339616"/>
+        <c:crossAx val="-689946672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1380,7 +1383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948339616"/>
+        <c:axId val="-689946672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1434,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948336288"/>
+        <c:crossAx val="-689945040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1445,6 +1448,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1512,7 +1516,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1661,7 +1665,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D1E8-487B-9001-2D4B6864EE10}"/>
             </c:ext>
@@ -1857,7 +1861,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D1E8-487B-9001-2D4B6864EE10}"/>
             </c:ext>
@@ -1872,11 +1876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948301760"/>
-        <c:axId val="948312160"/>
+        <c:axId val="-689966256"/>
+        <c:axId val="-689942864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948301760"/>
+        <c:axId val="-689966256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +1922,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948312160"/>
+        <c:crossAx val="-689942864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1926,7 +1930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948312160"/>
+        <c:axId val="-689942864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1977,7 +1981,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948301760"/>
+        <c:crossAx val="-689966256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2058,7 +2062,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2207,7 +2211,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D68E-4F57-AC10-9133BF734840}"/>
             </c:ext>
@@ -2403,7 +2407,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D68E-4F57-AC10-9133BF734840}"/>
             </c:ext>
@@ -2418,11 +2422,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948326304"/>
-        <c:axId val="948321728"/>
+        <c:axId val="-689950480"/>
+        <c:axId val="-689964080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948326304"/>
+        <c:axId val="-689950480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,7 +2468,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948321728"/>
+        <c:crossAx val="-689964080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2472,7 +2476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948321728"/>
+        <c:axId val="-689964080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2527,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948326304"/>
+        <c:crossAx val="-689950480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2604,7 +2608,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2741,7 +2745,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C7B-4C2F-B6F4-6DE470CE43E9}"/>
             </c:ext>
@@ -2925,7 +2929,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8C7B-4C2F-B6F4-6DE470CE43E9}"/>
             </c:ext>
@@ -2940,11 +2944,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948279296"/>
-        <c:axId val="948297600"/>
+        <c:axId val="-689949936"/>
+        <c:axId val="-689941776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948279296"/>
+        <c:axId val="-689949936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2990,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948297600"/>
+        <c:crossAx val="-689941776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2994,7 +2998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948297600"/>
+        <c:axId val="-689941776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +3049,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948279296"/>
+        <c:crossAx val="-689949936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3126,7 +3130,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3283,7 +3287,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6E13-4C23-A96B-1E7878E3E490}"/>
             </c:ext>
@@ -3479,7 +3483,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6E13-4C23-A96B-1E7878E3E490}"/>
             </c:ext>
@@ -3494,11 +3498,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="986011632"/>
-        <c:axId val="985998320"/>
+        <c:axId val="-689958640"/>
+        <c:axId val="-689962992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="986011632"/>
+        <c:axId val="-689958640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3540,7 +3544,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="985998320"/>
+        <c:crossAx val="-689962992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3548,7 +3552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="985998320"/>
+        <c:axId val="-689962992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3599,7 +3603,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986011632"/>
+        <c:crossAx val="-689958640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3680,7 +3684,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3854,7 +3858,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-42C9-42E5-813D-F28176FC79F7}"/>
             </c:ext>
@@ -3960,7 +3964,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-42C9-42E5-813D-F28176FC79F7}"/>
             </c:ext>
@@ -3975,11 +3979,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948287200"/>
-        <c:axId val="948275552"/>
+        <c:axId val="-689957008"/>
+        <c:axId val="-689944496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948287200"/>
+        <c:axId val="-689957008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4021,7 +4025,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948275552"/>
+        <c:crossAx val="-689944496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4029,7 +4033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948275552"/>
+        <c:axId val="-689944496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4080,7 +4084,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948287200"/>
+        <c:crossAx val="-689957008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4161,7 +4165,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4310,7 +4314,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-085F-495E-B0B0-322852D8C181}"/>
             </c:ext>
@@ -4506,7 +4510,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-085F-495E-B0B0-322852D8C181}"/>
             </c:ext>
@@ -4521,11 +4525,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948296768"/>
-        <c:axId val="948275136"/>
+        <c:axId val="-689960816"/>
+        <c:axId val="-689962448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948296768"/>
+        <c:axId val="-689960816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,7 +4571,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948275136"/>
+        <c:crossAx val="-689962448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4575,7 +4579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948275136"/>
+        <c:axId val="-689962448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4626,7 +4630,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948296768"/>
+        <c:crossAx val="-689960816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4707,7 +4711,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4856,7 +4860,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-86A3-4BD4-B6FE-439D9D9A37BE}"/>
             </c:ext>
@@ -4962,7 +4966,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-86A3-4BD4-B6FE-439D9D9A37BE}"/>
             </c:ext>
@@ -4977,11 +4981,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="986004560"/>
-        <c:axId val="986006640"/>
+        <c:axId val="-689958096"/>
+        <c:axId val="-689940688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="986004560"/>
+        <c:axId val="-689958096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5023,7 +5027,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986006640"/>
+        <c:crossAx val="-689940688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5031,7 +5035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="986006640"/>
+        <c:axId val="-689940688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5082,7 +5086,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986004560"/>
+        <c:crossAx val="-689958096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5163,7 +5167,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5312,7 +5316,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6C53-4ADA-B685-010F75CD9B50}"/>
             </c:ext>
@@ -5418,7 +5422,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C53-4ADA-B685-010F75CD9B50}"/>
             </c:ext>
@@ -5433,11 +5437,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="875861504"/>
-        <c:axId val="875870240"/>
+        <c:axId val="-689949392"/>
+        <c:axId val="-689952656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="875861504"/>
+        <c:axId val="-689949392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5479,7 +5483,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875870240"/>
+        <c:crossAx val="-689952656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5487,7 +5491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875870240"/>
+        <c:axId val="-689952656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5538,7 +5542,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875861504"/>
+        <c:crossAx val="-689949392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5619,7 +5623,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5776,7 +5780,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE5F-4D7A-9325-3DD9837EF9FD}"/>
             </c:ext>
@@ -5882,7 +5886,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE5F-4D7A-9325-3DD9837EF9FD}"/>
             </c:ext>
@@ -5897,11 +5901,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948278464"/>
-        <c:axId val="948276800"/>
+        <c:axId val="-689957552"/>
+        <c:axId val="-689943952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948278464"/>
+        <c:axId val="-689957552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5943,7 +5947,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948276800"/>
+        <c:crossAx val="-689943952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5951,7 +5955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948276800"/>
+        <c:axId val="-689943952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6002,7 +6006,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948278464"/>
+        <c:crossAx val="-689957552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6016,6 +6020,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6083,7 +6088,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6243,7 +6248,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B61-4D4A-AC92-0F13B2522B63}"/>
             </c:ext>
@@ -6352,7 +6357,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2B61-4D4A-AC92-0F13B2522B63}"/>
             </c:ext>
@@ -6367,11 +6372,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="613731967"/>
-        <c:axId val="613732383"/>
+        <c:axId val="-831647840"/>
+        <c:axId val="-831646752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="613731967"/>
+        <c:axId val="-831647840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6413,7 +6418,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613732383"/>
+        <c:crossAx val="-831646752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6421,7 +6426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613732383"/>
+        <c:axId val="-831646752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6472,7 +6477,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613731967"/>
+        <c:crossAx val="-831647840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6553,7 +6558,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6567,6 +6572,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6702,7 +6708,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6EF1-4F39-81DD-56B4906B8BE7}"/>
             </c:ext>
@@ -6808,7 +6814,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6EF1-4F39-81DD-56B4906B8BE7}"/>
             </c:ext>
@@ -6823,11 +6829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948283456"/>
-        <c:axId val="948297600"/>
+        <c:axId val="-689956464"/>
+        <c:axId val="-689968432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948283456"/>
+        <c:axId val="-689956464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6869,7 +6875,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948297600"/>
+        <c:crossAx val="-689968432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6877,7 +6883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948297600"/>
+        <c:axId val="-689968432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6928,7 +6934,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948283456"/>
+        <c:crossAx val="-689956464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6942,6 +6948,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7009,7 +7016,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7158,7 +7165,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C03-4799-9415-128D135F1E11}"/>
             </c:ext>
@@ -7264,7 +7271,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7C03-4799-9415-128D135F1E11}"/>
             </c:ext>
@@ -7279,11 +7286,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="985997904"/>
-        <c:axId val="986004976"/>
+        <c:axId val="-689965712"/>
+        <c:axId val="-689967888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="985997904"/>
+        <c:axId val="-689965712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7325,7 +7332,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986004976"/>
+        <c:crossAx val="-689967888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7333,7 +7340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="986004976"/>
+        <c:axId val="-689967888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7384,7 +7391,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="985997904"/>
+        <c:crossAx val="-689965712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7465,7 +7472,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7640,7 +7647,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BB22-4E5F-8020-017F0C4E1BAD}"/>
             </c:ext>
@@ -7746,7 +7753,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BB22-4E5F-8020-017F0C4E1BAD}"/>
             </c:ext>
@@ -7761,11 +7768,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948308000"/>
-        <c:axId val="948317984"/>
+        <c:axId val="-689940144"/>
+        <c:axId val="-689948848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948308000"/>
+        <c:axId val="-689940144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7807,7 +7814,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948317984"/>
+        <c:crossAx val="-689948848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7815,7 +7822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948317984"/>
+        <c:axId val="-689948848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7866,7 +7873,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948308000"/>
+        <c:crossAx val="-689940144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7947,7 +7954,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8096,7 +8103,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D0F-479E-A4BB-1DBE80C074D9}"/>
             </c:ext>
@@ -8292,7 +8299,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1D0F-479E-A4BB-1DBE80C074D9}"/>
             </c:ext>
@@ -8307,11 +8314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="766601680"/>
-        <c:axId val="875892240"/>
+        <c:axId val="-689965168"/>
+        <c:axId val="-689961360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="766601680"/>
+        <c:axId val="-689965168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8353,7 +8360,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875892240"/>
+        <c:crossAx val="-689961360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8361,7 +8368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875892240"/>
+        <c:axId val="-689961360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8412,7 +8419,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766601680"/>
+        <c:crossAx val="-689965168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8493,7 +8500,7 @@
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8642,7 +8649,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E763-4D91-92BA-39A71A765C23}"/>
             </c:ext>
@@ -8748,7 +8755,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E763-4D91-92BA-39A71A765C23}"/>
             </c:ext>
@@ -8763,11 +8770,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="657888208"/>
-        <c:axId val="657884048"/>
+        <c:axId val="-689954832"/>
+        <c:axId val="-689948304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="657888208"/>
+        <c:axId val="-689954832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8809,7 +8816,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657884048"/>
+        <c:crossAx val="-689948304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8817,7 +8824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="657884048"/>
+        <c:axId val="-689948304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8868,7 +8875,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657888208"/>
+        <c:crossAx val="-689954832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8949,7 +8956,7 @@
 </file>
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9123,7 +9130,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1565-4FA7-89E1-A125775BBA82}"/>
             </c:ext>
@@ -9229,7 +9236,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1565-4FA7-89E1-A125775BBA82}"/>
             </c:ext>
@@ -9244,11 +9251,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948287200"/>
-        <c:axId val="948275552"/>
+        <c:axId val="-689952112"/>
+        <c:axId val="-689939600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948287200"/>
+        <c:axId val="-689952112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9290,7 +9297,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948275552"/>
+        <c:crossAx val="-689939600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9298,7 +9305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948275552"/>
+        <c:axId val="-689939600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9349,7 +9356,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948287200"/>
+        <c:crossAx val="-689952112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9430,7 +9437,7 @@
 </file>
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9579,7 +9586,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A7D2-4485-8126-E7CE80485FC6}"/>
             </c:ext>
@@ -9685,7 +9692,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A7D2-4485-8126-E7CE80485FC6}"/>
             </c:ext>
@@ -9700,11 +9707,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="986004560"/>
-        <c:axId val="986006640"/>
+        <c:axId val="-689955920"/>
+        <c:axId val="-689964624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="986004560"/>
+        <c:axId val="-689955920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9746,7 +9753,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986006640"/>
+        <c:crossAx val="-689964624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9754,7 +9761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="986006640"/>
+        <c:axId val="-689964624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9805,7 +9812,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986004560"/>
+        <c:crossAx val="-689955920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9886,7 +9893,7 @@
 </file>
 
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10035,7 +10042,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2109-461D-835D-428D2A5B6E03}"/>
             </c:ext>
@@ -10141,7 +10148,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2109-461D-835D-428D2A5B6E03}"/>
             </c:ext>
@@ -10156,11 +10163,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="875861504"/>
-        <c:axId val="875870240"/>
+        <c:axId val="-689967344"/>
+        <c:axId val="-689961904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="875861504"/>
+        <c:axId val="-689967344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10202,7 +10209,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875870240"/>
+        <c:crossAx val="-689961904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10210,7 +10217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875870240"/>
+        <c:axId val="-689961904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10261,7 +10268,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875861504"/>
+        <c:crossAx val="-689967344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10342,7 +10349,7 @@
 </file>
 
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10517,7 +10524,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A54A-4E39-A0F6-82255FCC5447}"/>
             </c:ext>
@@ -10623,7 +10630,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A54A-4E39-A0F6-82255FCC5447}"/>
             </c:ext>
@@ -10638,11 +10645,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948308000"/>
-        <c:axId val="948317984"/>
+        <c:axId val="-689966800"/>
+        <c:axId val="-689960272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948308000"/>
+        <c:axId val="-689966800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10684,7 +10691,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948317984"/>
+        <c:crossAx val="-689960272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10692,7 +10699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948317984"/>
+        <c:axId val="-689960272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10743,7 +10750,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948308000"/>
+        <c:crossAx val="-689966800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10824,7 +10831,7 @@
 </file>
 
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11098,7 +11105,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0035-4991-9308-BCE958A9A136}"/>
             </c:ext>
@@ -11291,7 +11298,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0035-4991-9308-BCE958A9A136}"/>
             </c:ext>
@@ -11306,11 +11313,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="720194303"/>
-        <c:axId val="720195551"/>
+        <c:axId val="-689954288"/>
+        <c:axId val="-689951568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="720194303"/>
+        <c:axId val="-689954288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11353,7 +11360,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720195551"/>
+        <c:crossAx val="-689951568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11361,7 +11368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="720195551"/>
+        <c:axId val="-689951568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11412,7 +11419,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720194303"/>
+        <c:crossAx val="-689954288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11494,7 +11501,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11646,7 +11653,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-774B-4036-BF92-CDC10C3ABC79}"/>
             </c:ext>
@@ -11755,7 +11762,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-774B-4036-BF92-CDC10C3ABC79}"/>
             </c:ext>
@@ -11770,11 +11777,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="712212559"/>
-        <c:axId val="712803263"/>
+        <c:axId val="-831645664"/>
+        <c:axId val="-831640768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="712212559"/>
+        <c:axId val="-831645664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11816,7 +11823,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712803263"/>
+        <c:crossAx val="-831640768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11824,7 +11831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712803263"/>
+        <c:axId val="-831640768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11875,7 +11882,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712212559"/>
+        <c:crossAx val="-831645664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11956,7 +11963,7 @@
 </file>
 
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12346,7 +12353,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-48CD-41C5-BE05-A3F13756F9C2}"/>
             </c:ext>
@@ -12719,7 +12726,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-48CD-41C5-BE05-A3F13756F9C2}"/>
             </c:ext>
@@ -12734,11 +12741,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="614095135"/>
-        <c:axId val="614091807"/>
+        <c:axId val="-689951024"/>
+        <c:axId val="-689947760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="614095135"/>
+        <c:axId val="-689951024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12781,7 +12788,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614091807"/>
+        <c:crossAx val="-689947760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12789,7 +12796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="614091807"/>
+        <c:axId val="-689947760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12840,7 +12847,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614095135"/>
+        <c:crossAx val="-689951024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12922,7 +12929,7 @@
 </file>
 
 <file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -13189,7 +13196,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6FE6-4BF4-B32D-8F6799B4E2C1}"/>
             </c:ext>
@@ -13382,7 +13389,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6FE6-4BF4-B32D-8F6799B4E2C1}"/>
             </c:ext>
@@ -13397,11 +13404,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="610356111"/>
-        <c:axId val="601190319"/>
+        <c:axId val="-689947216"/>
+        <c:axId val="-689946128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="610356111"/>
+        <c:axId val="-689947216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13444,7 +13451,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601190319"/>
+        <c:crossAx val="-689946128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13452,7 +13459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601190319"/>
+        <c:axId val="-689946128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13503,7 +13510,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610356111"/>
+        <c:crossAx val="-689947216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13585,7 +13592,7 @@
 </file>
 
 <file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -13938,7 +13945,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3689-4BDF-9945-CEC61B3B2A01}"/>
             </c:ext>
@@ -14311,7 +14318,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3689-4BDF-9945-CEC61B3B2A01}"/>
             </c:ext>
@@ -14326,11 +14333,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="810149503"/>
-        <c:axId val="810149919"/>
+        <c:axId val="-689945584"/>
+        <c:axId val="-690002160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="810149503"/>
+        <c:axId val="-689945584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14373,7 +14380,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="810149919"/>
+        <c:crossAx val="-690002160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14381,7 +14388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="810149919"/>
+        <c:axId val="-690002160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14432,7 +14439,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="810149503"/>
+        <c:crossAx val="-689945584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14514,7 +14521,7 @@
 </file>
 
 <file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -14528,6 +14535,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14663,7 +14671,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7448-4A48-96C9-CE71D2D843CC}"/>
             </c:ext>
@@ -14769,7 +14777,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7448-4A48-96C9-CE71D2D843CC}"/>
             </c:ext>
@@ -14784,11 +14792,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="239542735"/>
-        <c:axId val="803628127"/>
+        <c:axId val="-689972784"/>
+        <c:axId val="-689990192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="239542735"/>
+        <c:axId val="-689972784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14830,7 +14838,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="803628127"/>
+        <c:crossAx val="-689990192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14838,7 +14846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="803628127"/>
+        <c:axId val="-689990192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14889,7 +14897,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239542735"/>
+        <c:crossAx val="-689972784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14903,6 +14911,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14970,7 +14979,7 @@
 </file>
 
 <file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -14984,6 +14993,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15119,7 +15129,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FE8-4905-996C-DDDBCC5170FE}"/>
             </c:ext>
@@ -15315,7 +15325,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FE8-4905-996C-DDDBCC5170FE}"/>
             </c:ext>
@@ -15330,11 +15340,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="610353647"/>
-        <c:axId val="610354479"/>
+        <c:axId val="-689980944"/>
+        <c:axId val="-689988560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="610353647"/>
+        <c:axId val="-689980944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15376,7 +15386,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610354479"/>
+        <c:crossAx val="-689988560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15384,7 +15394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="610354479"/>
+        <c:axId val="-689988560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15435,7 +15445,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610353647"/>
+        <c:crossAx val="-689980944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15449,6 +15459,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15516,7 +15527,7 @@
 </file>
 
 <file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -15665,7 +15676,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A46-4B01-BD45-E72C4E212A84}"/>
             </c:ext>
@@ -15861,7 +15872,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A46-4B01-BD45-E72C4E212A84}"/>
             </c:ext>
@@ -15876,11 +15887,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="768217183"/>
-        <c:axId val="768217599"/>
+        <c:axId val="-689997264"/>
+        <c:axId val="-689971696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="768217183"/>
+        <c:axId val="-689997264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15922,7 +15933,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="768217599"/>
+        <c:crossAx val="-689971696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15930,7 +15941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="768217599"/>
+        <c:axId val="-689971696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15981,7 +15992,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="768217183"/>
+        <c:crossAx val="-689997264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16062,7 +16073,7 @@
 </file>
 
 <file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -16211,7 +16222,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AB07-4BB8-8AD5-360378423D67}"/>
             </c:ext>
@@ -16407,7 +16418,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AB07-4BB8-8AD5-360378423D67}"/>
             </c:ext>
@@ -16422,11 +16433,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1094830383"/>
-        <c:axId val="716488511"/>
+        <c:axId val="-690002704"/>
+        <c:axId val="-689971152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1094830383"/>
+        <c:axId val="-690002704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16468,7 +16479,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="716488511"/>
+        <c:crossAx val="-689971152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16476,7 +16487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="716488511"/>
+        <c:axId val="-689971152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16527,7 +16538,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1094830383"/>
+        <c:crossAx val="-690002704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16608,7 +16619,7 @@
 </file>
 
 <file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -16765,7 +16776,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B2B9-468E-BF66-54BFFCE2F627}"/>
             </c:ext>
@@ -16961,7 +16972,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B2B9-468E-BF66-54BFFCE2F627}"/>
             </c:ext>
@@ -16976,11 +16987,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="363069935"/>
-        <c:axId val="363070351"/>
+        <c:axId val="-689994000"/>
+        <c:axId val="-689992368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="363069935"/>
+        <c:axId val="-689994000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17022,7 +17033,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363070351"/>
+        <c:crossAx val="-689992368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17030,7 +17041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363070351"/>
+        <c:axId val="-689992368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17081,7 +17092,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363069935"/>
+        <c:crossAx val="-689994000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17162,7 +17173,7 @@
 </file>
 
 <file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -17311,7 +17322,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B23-4CAE-9D32-2DB69D28409B}"/>
             </c:ext>
@@ -17507,7 +17518,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B23-4CAE-9D32-2DB69D28409B}"/>
             </c:ext>
@@ -17522,11 +17533,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1096939423"/>
-        <c:axId val="1096937759"/>
+        <c:axId val="-689991280"/>
+        <c:axId val="-689978768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1096939423"/>
+        <c:axId val="-689991280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17568,7 +17579,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1096937759"/>
+        <c:crossAx val="-689978768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17576,7 +17587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1096937759"/>
+        <c:axId val="-689978768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17627,7 +17638,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1096939423"/>
+        <c:crossAx val="-689991280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17708,7 +17719,7 @@
 </file>
 
 <file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -17857,7 +17868,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A7CA-4E0D-8011-E0D262F96494}"/>
             </c:ext>
@@ -18053,7 +18064,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A7CA-4E0D-8011-E0D262F96494}"/>
             </c:ext>
@@ -18068,11 +18079,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="363071183"/>
-        <c:axId val="363071599"/>
+        <c:axId val="-689983120"/>
+        <c:axId val="-689977680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="363071183"/>
+        <c:axId val="-689983120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18114,7 +18125,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363071599"/>
+        <c:crossAx val="-689977680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18122,7 +18133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363071599"/>
+        <c:axId val="-689977680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18173,7 +18184,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363071183"/>
+        <c:crossAx val="-689983120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18254,7 +18265,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -18406,7 +18417,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B97E-4D10-9D3D-01AE3FE8B083}"/>
             </c:ext>
@@ -18515,7 +18526,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B97E-4D10-9D3D-01AE3FE8B083}"/>
             </c:ext>
@@ -18530,11 +18541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="763750191"/>
-        <c:axId val="763751023"/>
+        <c:axId val="-1890477024"/>
+        <c:axId val="-689942320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="763750191"/>
+        <c:axId val="-1890477024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18576,7 +18587,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="763751023"/>
+        <c:crossAx val="-689942320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18584,7 +18595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="763751023"/>
+        <c:axId val="-689942320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18635,7 +18646,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="763750191"/>
+        <c:crossAx val="-1890477024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18716,7 +18727,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -18868,7 +18879,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C5A-432D-A898-0FAE79FC2A37}"/>
             </c:ext>
@@ -18977,7 +18988,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C5A-432D-A898-0FAE79FC2A37}"/>
             </c:ext>
@@ -18992,11 +19003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="605381791"/>
-        <c:axId val="712211727"/>
+        <c:axId val="-689939056"/>
+        <c:axId val="-689955376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="605381791"/>
+        <c:axId val="-689939056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19038,7 +19049,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712211727"/>
+        <c:crossAx val="-689955376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19046,7 +19057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712211727"/>
+        <c:axId val="-689955376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19097,7 +19108,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605381791"/>
+        <c:crossAx val="-689939056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19178,7 +19189,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -19330,7 +19341,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDD0-45B0-AB28-3094154AD709}"/>
             </c:ext>
@@ -19439,7 +19450,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DDD0-45B0-AB28-3094154AD709}"/>
             </c:ext>
@@ -19454,11 +19465,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="605382623"/>
-        <c:axId val="712212143"/>
+        <c:axId val="-689941232"/>
+        <c:axId val="-689963536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="605382623"/>
+        <c:axId val="-689941232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19500,7 +19511,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712212143"/>
+        <c:crossAx val="-689963536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19508,7 +19519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712212143"/>
+        <c:axId val="-689963536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19559,7 +19570,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605382623"/>
+        <c:crossAx val="-689941232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19640,7 +19651,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -19792,7 +19803,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A490-40D1-A2D2-6513553CC919}"/>
             </c:ext>
@@ -19901,7 +19912,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A490-40D1-A2D2-6513553CC919}"/>
             </c:ext>
@@ -19916,11 +19927,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="712284655"/>
-        <c:axId val="720072719"/>
+        <c:axId val="-689968976"/>
+        <c:axId val="-689953744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="712284655"/>
+        <c:axId val="-689968976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19962,7 +19973,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720072719"/>
+        <c:crossAx val="-689953744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19970,7 +19981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="720072719"/>
+        <c:axId val="-689953744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20021,7 +20032,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712284655"/>
+        <c:crossAx val="-689968976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20102,7 +20113,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -20116,6 +20127,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20254,7 +20266,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B36-4816-BBC0-EBFB3301DDA1}"/>
             </c:ext>
@@ -20363,7 +20375,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0B36-4816-BBC0-EBFB3301DDA1}"/>
             </c:ext>
@@ -20378,11 +20390,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="712283823"/>
-        <c:axId val="712284239"/>
+        <c:axId val="-689959184"/>
+        <c:axId val="-689953200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="712283823"/>
+        <c:axId val="-689959184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20424,7 +20436,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712284239"/>
+        <c:crossAx val="-689953200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20432,7 +20444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712284239"/>
+        <c:axId val="-689953200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20483,7 +20495,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712283823"/>
+        <c:crossAx val="-689959184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20497,6 +20509,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20564,7 +20577,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -20578,6 +20591,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20713,12 +20727,15 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF01-401F-B558-11AE5E462DEC}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!#REF!</c15:sqref>
@@ -20728,9 +20745,6 @@
                   </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF01-401F-B558-11AE5E462DEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20924,12 +20938,15 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF01-401F-B558-11AE5E462DEC}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!#REF!</c15:sqref>
@@ -20939,9 +20956,6 @@
                   </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FF01-401F-B558-11AE5E462DEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20954,11 +20968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="764756432"/>
-        <c:axId val="764753520"/>
+        <c:axId val="-689959728"/>
+        <c:axId val="-689943408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="764756432"/>
+        <c:axId val="-689959728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21001,7 +21015,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764753520"/>
+        <c:crossAx val="-689943408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21009,7 +21023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="764753520"/>
+        <c:axId val="-689943408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21060,7 +21074,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764756432"/>
+        <c:crossAx val="-689959728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21074,6 +21088,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -50997,10 +51012,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL173"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AK1" sqref="AK1"/>
-      <selection pane="bottomLeft" activeCell="AK7" sqref="AK7"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51781,7 +51796,7 @@
         <v>31.363613608489246</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f>$I3+$C5*M2*(1/(1+EXP(-$A5*(N4-$B5))))</f>
         <v>37.925465375358208</v>
       </c>
       <c r="O7">
@@ -57711,8 +57726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58493,7 +58508,7 @@
         <v>31.363613608489246</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f>$I3+$C5*M2*(1/(1+EXP(-$A5*(N4-$B5))))</f>
         <v>37.925465375358208</v>
       </c>
       <c r="O7">
